--- a/part2_Use-Python-in-Office/ch06_work-with-excel/6-3_worksheets/vehicle.xlsx
+++ b/part2_Use-Python-in-Office/ch06_work-with-excel/6-3_worksheets/vehicle.xlsx
@@ -6,9 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年2月份韩国汽车（分车型）销量" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年2月份日本汽车（分车型）出口量" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2017年12月份北美洲汽车产量" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年2月份韩国汽车（分车型）销量" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023年2月份日本汽车（分车型）出口量" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2017年12月份北美洲汽车产量" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new sheet 2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -872,6 +874,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1089,7 +1109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +1491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1625,4 +1645,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>